--- a/new-stats/al-wehda.xlsx
+++ b/new-stats/al-wehda.xlsx
@@ -2158,40 +2158,120 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr"/>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>01/05/2025</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Al Okhdood</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Al-Wehda</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M31" t="n">
+        <v>10</v>
+      </c>
+      <c r="N31" t="n">
+        <v>16</v>
+      </c>
+      <c r="O31" t="n">
+        <v>3</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr"/>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>10/05/2025</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Al-Wehda</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Al Fateh</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="n">
+        <v>16</v>
+      </c>
+      <c r="O32" t="n">
+        <v>2</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr"/>

--- a/new-stats/al-wehda.xlsx
+++ b/new-stats/al-wehda.xlsx
@@ -2274,40 +2274,120 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr"/>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Al Qadisiya</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>3</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Al-Wehda</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>2</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="M33" t="n">
+        <v>7</v>
+      </c>
+      <c r="N33" t="n">
+        <v>17</v>
+      </c>
+      <c r="O33" t="n">
+        <v>2</v>
+      </c>
+      <c r="P33" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr"/>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Al-Wehda</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Al-Hilal</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="n">
+        <v>17</v>
+      </c>
+      <c r="O34" t="n">
+        <v>2</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr"/>

--- a/new-stats/al-wehda.xlsx
+++ b/new-stats/al-wehda.xlsx
@@ -2390,22 +2390,62 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr"/>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Al-Ettifaq</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>2</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Al-Wehda</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1</v>
+      </c>
+      <c r="K35" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M35" t="n">
+        <v>20</v>
+      </c>
+      <c r="N35" t="n">
+        <v>12</v>
+      </c>
+      <c r="O35" t="n">
+        <v>5</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr"/>
